--- a/PhenoRecords2017.xlsx
+++ b/PhenoRecords2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deidrejaeger/Documents/CU-Boulder/Research/Summer2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deidrejaeger/GitHub/Pheno2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="28160" windowHeight="15700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="28160" windowHeight="15700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FullPheno" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="153">
   <si>
     <t>Site #</t>
   </si>
@@ -416,6 +416,78 @@
   </si>
   <si>
     <t>1 bud has burst</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Lawn is cut- dropping site</t>
+  </si>
+  <si>
+    <t>Box elder, fruits</t>
+  </si>
+  <si>
+    <t>Box elder flowering</t>
+  </si>
+  <si>
+    <t>Box elder fruiting</t>
+  </si>
+  <si>
+    <t>grass flowering</t>
+  </si>
+  <si>
+    <t>flowering</t>
+  </si>
+  <si>
+    <t>cottonwood fruiting</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>partly cloudy</t>
+  </si>
+  <si>
+    <t>cloudy and rainy</t>
+  </si>
+  <si>
+    <t>7 ind</t>
+  </si>
+  <si>
+    <t>4 ind</t>
+  </si>
+  <si>
+    <t>12 ind</t>
+  </si>
+  <si>
+    <t>5 ind</t>
+  </si>
+  <si>
+    <t>cheatgrass flowering</t>
+  </si>
+  <si>
+    <t>10 ind</t>
+  </si>
+  <si>
+    <t>flower buds</t>
+  </si>
+  <si>
+    <t>21 ind</t>
+  </si>
+  <si>
+    <t>6 ind</t>
+  </si>
+  <si>
+    <t>houndstongue flowering</t>
+  </si>
+  <si>
+    <t>2 ind</t>
+  </si>
+  <si>
+    <t>1 ind</t>
+  </si>
+  <si>
+    <t>part cloudy</t>
   </si>
 </sst>
 </file>
@@ -423,9 +495,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -502,7 +574,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -510,8 +582,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -542,6 +618,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -550,21 +630,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -840,16 +926,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS37"/>
+  <dimension ref="A1:AS65"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="AI29" sqref="AI29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.5" customWidth="1"/>
@@ -862,7 +950,7 @@
     <col min="16" max="16" width="7.83203125" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" customWidth="1"/>
-    <col min="19" max="19" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.33203125" style="24" customWidth="1"/>
     <col min="20" max="20" width="6.6640625" customWidth="1"/>
     <col min="21" max="21" width="5.33203125" customWidth="1"/>
     <col min="22" max="22" width="7.33203125" customWidth="1"/>
@@ -870,7 +958,7 @@
     <col min="25" max="25" width="6.83203125" customWidth="1"/>
     <col min="26" max="26" width="9.5" customWidth="1"/>
     <col min="27" max="27" width="6.6640625" customWidth="1"/>
-    <col min="28" max="28" width="6.6640625" style="21" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" style="24" customWidth="1"/>
     <col min="29" max="29" width="5.6640625" style="21" customWidth="1"/>
     <col min="30" max="30" width="6.6640625" style="21" customWidth="1"/>
     <col min="31" max="32" width="6.83203125" style="21" customWidth="1"/>
@@ -888,19 +976,19 @@
   <sheetData>
     <row r="1" spans="1:45" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -941,7 +1029,7 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="23" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -968,7 +1056,7 @@
       <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="23" t="s">
         <v>24</v>
       </c>
       <c r="AC1" s="20" t="s">
@@ -1024,20 +1112,20 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="11">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="5">
+      <c r="D2" s="5">
         <v>40.012996999999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="E2" s="5">
         <v>-105.270138</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="11">
-        <v>15</v>
       </c>
       <c r="F2" s="12">
         <v>0.81597222222222221</v>
@@ -1078,7 +1166,7 @@
       <c r="R2">
         <v>0.52</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="24">
         <v>0.02</v>
       </c>
       <c r="T2">
@@ -1102,7 +1190,7 @@
       <c r="AA2" t="s">
         <v>86</v>
       </c>
-      <c r="AB2" s="21">
+      <c r="AB2" s="24">
         <v>0.61111111111111116</v>
       </c>
       <c r="AC2" s="21">
@@ -1155,20 +1243,20 @@
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="11">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5">
+      <c r="D3" s="5">
         <v>40.011881000000002</v>
       </c>
-      <c r="C3" s="5">
+      <c r="E3" s="5">
         <v>-105.270138</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="11">
-        <v>14</v>
       </c>
       <c r="F3" s="12">
         <v>0.82638888888888884</v>
@@ -1209,7 +1297,7 @@
       <c r="R3">
         <v>0.32</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="24">
         <v>0.02</v>
       </c>
       <c r="T3">
@@ -1233,7 +1321,7 @@
       <c r="AA3" t="s">
         <v>86</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AB3" s="24">
         <v>0.16666666666666666</v>
       </c>
       <c r="AC3" s="21">
@@ -1286,20 +1374,20 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="11">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5">
+      <c r="D4" s="5">
         <v>40.010722999999999</v>
       </c>
-      <c r="C4" s="5">
+      <c r="E4" s="5">
         <v>-105.270138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11">
-        <v>15</v>
       </c>
       <c r="F4" s="12">
         <v>0.79999999999999993</v>
@@ -1340,7 +1428,7 @@
       <c r="R4">
         <v>0.53</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="24">
         <v>0.02</v>
       </c>
       <c r="T4">
@@ -1364,7 +1452,7 @@
       <c r="AA4" t="s">
         <v>86</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB4" s="24">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AC4" s="21">
@@ -1414,20 +1502,20 @@
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="11">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="5">
+      <c r="D5" s="5">
         <v>40.012996999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="E5" s="5">
         <v>-105.268704</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="11">
-        <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>79</v>
@@ -1468,7 +1556,7 @@
       <c r="R5">
         <v>0.7</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="24">
         <v>0.05</v>
       </c>
       <c r="T5">
@@ -1492,7 +1580,7 @@
       <c r="AA5" t="s">
         <v>79</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AB5" s="24">
         <v>0</v>
       </c>
       <c r="AC5" s="21">
@@ -1545,20 +1633,20 @@
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="11">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7">
+      <c r="D6" s="7">
         <v>40.011881000000002</v>
       </c>
-      <c r="C6" s="7">
+      <c r="E6" s="7">
         <v>-105.268704</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="11">
-        <v>14</v>
       </c>
       <c r="F6" s="12">
         <v>0.81527777777777777</v>
@@ -1599,7 +1687,7 @@
       <c r="R6">
         <v>1.21</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="24">
         <v>0.04</v>
       </c>
       <c r="T6">
@@ -1623,7 +1711,7 @@
       <c r="AA6" t="s">
         <v>86</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="24">
         <v>0.25</v>
       </c>
       <c r="AC6" s="21">
@@ -1676,20 +1764,20 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="11">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7">
+      <c r="D7" s="7">
         <v>40.010722999999999</v>
       </c>
-      <c r="C7" s="7">
+      <c r="E7" s="7">
         <v>-105.268704</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="11">
-        <v>15</v>
       </c>
       <c r="F7" s="12">
         <v>0.77500000000000002</v>
@@ -1730,7 +1818,7 @@
       <c r="R7">
         <v>0.24</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="24">
         <v>0.02</v>
       </c>
       <c r="T7">
@@ -1754,7 +1842,7 @@
       <c r="AA7" t="s">
         <v>86</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="AB7" s="24">
         <v>0</v>
       </c>
       <c r="AC7" s="21">
@@ -1807,20 +1895,20 @@
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="11">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5">
+      <c r="D8" s="5">
         <v>40.012996999999999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="E8" s="5">
         <v>-105.267231</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="11">
-        <v>15</v>
       </c>
       <c r="F8" s="12">
         <v>0.82361111111111107</v>
@@ -1861,7 +1949,7 @@
       <c r="R8" t="s">
         <v>82</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="24" t="s">
         <v>82</v>
       </c>
       <c r="T8" t="s">
@@ -1885,7 +1973,7 @@
       <c r="AA8" t="s">
         <v>86</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AB8" s="24">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="AC8" s="21">
@@ -1938,20 +2026,20 @@
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="11">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="7">
+      <c r="D9" s="7">
         <v>40.011881000000002</v>
       </c>
-      <c r="C9" s="7">
+      <c r="E9" s="7">
         <v>-105.267231</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="11">
-        <v>14</v>
       </c>
       <c r="F9" s="12">
         <v>0.79652777777777783</v>
@@ -1992,7 +2080,7 @@
       <c r="R9">
         <v>0.63</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="24">
         <v>0.02</v>
       </c>
       <c r="T9">
@@ -2019,7 +2107,7 @@
       <c r="AA9" t="s">
         <v>86</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AB9" s="24">
         <v>0.22222222222222221</v>
       </c>
       <c r="AC9" s="21">
@@ -2072,20 +2160,20 @@
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="11">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="7">
+      <c r="D10" s="7">
         <v>40.010722999999999</v>
       </c>
-      <c r="C10" s="7">
+      <c r="E10" s="7">
         <v>-105.267231</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="11">
-        <v>14</v>
       </c>
       <c r="F10" s="12">
         <v>0.77222222222222225</v>
@@ -2126,7 +2214,7 @@
       <c r="R10">
         <v>0.94</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="24">
         <v>0.04</v>
       </c>
       <c r="T10">
@@ -2150,7 +2238,7 @@
       <c r="AA10" t="s">
         <v>86</v>
       </c>
-      <c r="AB10" s="21">
+      <c r="AB10" s="24">
         <v>0.19444444444444445</v>
       </c>
       <c r="AC10" s="21">
@@ -2203,20 +2291,20 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5">
+      <c r="D11" s="5">
         <v>39.999321000000002</v>
       </c>
-      <c r="C11" s="5">
+      <c r="E11" s="5">
         <v>-105.216571</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="11">
-        <v>9</v>
       </c>
       <c r="F11" s="12">
         <v>0.6333333333333333</v>
@@ -2257,7 +2345,7 @@
       <c r="R11" t="s">
         <v>82</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="24" t="s">
         <v>82</v>
       </c>
       <c r="T11" t="s">
@@ -2284,7 +2372,7 @@
       <c r="AA11" t="s">
         <v>86</v>
       </c>
-      <c r="AB11" s="21">
+      <c r="AB11" s="24">
         <v>0</v>
       </c>
       <c r="AC11" s="21">
@@ -2337,20 +2425,20 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5">
+      <c r="D12" s="5">
         <v>39.998171999999997</v>
       </c>
-      <c r="C12" s="5">
+      <c r="E12" s="5">
         <v>-105.216571</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="11">
-        <v>9</v>
       </c>
       <c r="F12" s="12">
         <v>0.65555555555555556</v>
@@ -2391,7 +2479,7 @@
       <c r="R12" t="s">
         <v>82</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="24" t="s">
         <v>82</v>
       </c>
       <c r="T12" t="s">
@@ -2415,7 +2503,7 @@
       <c r="AA12" t="s">
         <v>86</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AB12" s="24">
         <v>0</v>
       </c>
       <c r="AC12" s="21">
@@ -2468,20 +2556,20 @@
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="11">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5">
+      <c r="D13" s="5">
         <v>39.997062999999997</v>
       </c>
-      <c r="C13" s="5">
+      <c r="E13" s="5">
         <v>-105.216571</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="11">
-        <v>9</v>
       </c>
       <c r="F13" s="12">
         <v>0.70833333333333337</v>
@@ -2522,7 +2610,7 @@
       <c r="R13" t="s">
         <v>82</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="24" t="s">
         <v>82</v>
       </c>
       <c r="T13" t="s">
@@ -2546,7 +2634,7 @@
       <c r="AA13" t="s">
         <v>86</v>
       </c>
-      <c r="AB13" s="21">
+      <c r="AB13" s="24">
         <v>0</v>
       </c>
       <c r="AC13" s="21">
@@ -2603,20 +2691,20 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="11">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5">
+      <c r="D14" s="5">
         <v>39.999321000000002</v>
       </c>
-      <c r="C14" s="5">
+      <c r="E14" s="5">
         <v>-105.215103</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="11">
-        <v>10</v>
       </c>
       <c r="F14" s="12">
         <v>0.65486111111111112</v>
@@ -2657,7 +2745,7 @@
       <c r="R14">
         <v>0.16</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="24">
         <v>0.05</v>
       </c>
       <c r="T14">
@@ -2681,7 +2769,7 @@
       <c r="AA14" t="s">
         <v>86</v>
       </c>
-      <c r="AB14" s="21">
+      <c r="AB14" s="24">
         <v>0</v>
       </c>
       <c r="AC14" s="21">
@@ -2739,20 +2827,20 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="11">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="7">
+      <c r="D15" s="7">
         <v>39.998171999999997</v>
       </c>
-      <c r="C15" s="7">
+      <c r="E15" s="7">
         <v>-105.215103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="11">
-        <v>10</v>
       </c>
       <c r="F15" s="12">
         <v>0.64097222222222217</v>
@@ -2793,7 +2881,7 @@
       <c r="R15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T15" s="14" t="s">
@@ -2817,7 +2905,7 @@
       <c r="AA15" t="s">
         <v>86</v>
       </c>
-      <c r="AB15" s="21">
+      <c r="AB15" s="24">
         <v>0</v>
       </c>
       <c r="AC15" s="21">
@@ -2872,20 +2960,20 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="11">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="7">
+      <c r="D16" s="7">
         <v>39.997062999999997</v>
       </c>
-      <c r="C16" s="8">
+      <c r="E16" s="8">
         <v>-105.215103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="11">
-        <v>10</v>
       </c>
       <c r="F16" s="12">
         <v>0.62777777777777777</v>
@@ -2926,7 +3014,7 @@
       <c r="R16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T16" s="14" t="s">
@@ -2950,7 +3038,7 @@
       <c r="AA16" t="s">
         <v>86</v>
       </c>
-      <c r="AB16" s="21">
+      <c r="AB16" s="24">
         <v>0</v>
       </c>
       <c r="AC16" s="21">
@@ -3003,20 +3091,20 @@
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="5">
+      <c r="D17" s="5">
         <v>39.999321000000002</v>
       </c>
-      <c r="C17" s="5">
+      <c r="E17" s="5">
         <v>-105.213673</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="11">
-        <v>10</v>
       </c>
       <c r="F17" s="12">
         <v>0.60069444444444442</v>
@@ -3057,7 +3145,7 @@
       <c r="R17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T17" s="14" t="s">
@@ -3081,7 +3169,7 @@
       <c r="AA17" t="s">
         <v>86</v>
       </c>
-      <c r="AB17" s="21">
+      <c r="AB17" s="24">
         <v>0</v>
       </c>
       <c r="AC17" s="21">
@@ -3134,20 +3222,20 @@
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="11">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="7">
+      <c r="D18" s="7">
         <v>39.998171999999997</v>
       </c>
-      <c r="C18" s="7">
+      <c r="E18" s="7">
         <v>-105.213673</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="11">
-        <v>9</v>
       </c>
       <c r="F18" s="12">
         <v>0.60972222222222217</v>
@@ -3188,7 +3276,7 @@
       <c r="R18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T18" s="14" t="s">
@@ -3212,7 +3300,7 @@
       <c r="AA18" t="s">
         <v>86</v>
       </c>
-      <c r="AB18" s="21">
+      <c r="AB18" s="24">
         <v>0</v>
       </c>
       <c r="AC18" s="21">
@@ -3262,20 +3350,20 @@
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="11">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="7">
+      <c r="D19" s="7">
         <v>39.997062999999997</v>
       </c>
-      <c r="C19" s="7">
+      <c r="E19" s="7">
         <v>-105.213673</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="11">
-        <v>9</v>
       </c>
       <c r="F19" s="12">
         <v>0.6166666666666667</v>
@@ -3316,7 +3404,7 @@
       <c r="R19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S19" s="14" t="s">
+      <c r="S19" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T19" s="14" t="s">
@@ -3340,7 +3428,7 @@
       <c r="AA19" t="s">
         <v>86</v>
       </c>
-      <c r="AB19" s="21">
+      <c r="AB19" s="24">
         <v>0</v>
       </c>
       <c r="AC19" s="21">
@@ -3393,20 +3481,20 @@
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="11">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="5">
+      <c r="D20" s="5">
         <v>39.995587999999998</v>
       </c>
-      <c r="C20" s="5">
+      <c r="E20" s="5">
         <v>-105.218913</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="11">
-        <v>9</v>
       </c>
       <c r="F20" s="12">
         <v>0.73333333333333339</v>
@@ -3447,7 +3535,7 @@
       <c r="R20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S20" s="14" t="s">
+      <c r="S20" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T20" s="14" t="s">
@@ -3471,7 +3559,7 @@
       <c r="AA20" t="s">
         <v>86</v>
       </c>
-      <c r="AB20" s="21">
+      <c r="AB20" s="24">
         <v>0</v>
       </c>
       <c r="AC20" s="21">
@@ -3524,20 +3612,20 @@
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="11">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="5">
+      <c r="D21" s="5">
         <v>39.994439</v>
       </c>
-      <c r="C21" s="5">
+      <c r="E21" s="5">
         <v>-105.218913</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="11">
-        <v>9</v>
       </c>
       <c r="F21" s="12">
         <v>0.74236111111111114</v>
@@ -3578,7 +3666,7 @@
       <c r="R21" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="S21" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T21" s="14" t="s">
@@ -3602,7 +3690,7 @@
       <c r="AA21" t="s">
         <v>86</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB21" s="24">
         <v>0</v>
       </c>
       <c r="AC21" s="21">
@@ -3655,20 +3743,20 @@
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="11">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="7">
+      <c r="D22" s="7">
         <v>39.993318000000002</v>
       </c>
-      <c r="C22" s="7">
+      <c r="E22" s="7">
         <v>-105.218913</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="11">
-        <v>9</v>
       </c>
       <c r="F22" s="12">
         <v>0.75347222222222221</v>
@@ -3709,7 +3797,7 @@
       <c r="R22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T22" s="14" t="s">
@@ -3733,7 +3821,7 @@
       <c r="AA22" t="s">
         <v>86</v>
       </c>
-      <c r="AB22" s="21">
+      <c r="AB22" s="24">
         <v>0</v>
       </c>
       <c r="AC22" s="21">
@@ -3786,20 +3874,20 @@
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="11">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="5">
+      <c r="D23" s="5">
         <v>39.995587999999998</v>
       </c>
-      <c r="C23" s="5">
+      <c r="E23" s="5">
         <v>-105.217454</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="11">
-        <v>9</v>
       </c>
       <c r="F23" s="12">
         <v>0.79791666666666661</v>
@@ -3840,7 +3928,7 @@
       <c r="R23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S23" s="14" t="s">
+      <c r="S23" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T23" s="14" t="s">
@@ -3864,7 +3952,7 @@
       <c r="AA23" t="s">
         <v>86</v>
       </c>
-      <c r="AB23" s="21">
+      <c r="AB23" s="24">
         <v>0</v>
       </c>
       <c r="AC23" s="21">
@@ -3917,20 +4005,20 @@
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="11">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="7">
+      <c r="D24" s="7">
         <v>39.994439</v>
       </c>
-      <c r="C24" s="7">
+      <c r="E24" s="7">
         <v>-105.217454</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="11">
-        <v>9</v>
       </c>
       <c r="F24" s="12">
         <v>0.80972222222222223</v>
@@ -3971,7 +4059,7 @@
       <c r="R24" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T24" s="14" t="s">
@@ -3995,7 +4083,7 @@
       <c r="AA24" t="s">
         <v>86</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AB24" s="24">
         <v>0</v>
       </c>
       <c r="AC24" s="21">
@@ -4047,20 +4135,20 @@
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="11">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="7">
+      <c r="D25" s="7">
         <v>39.993318000000002</v>
       </c>
-      <c r="C25" s="7">
+      <c r="E25" s="7">
         <v>-105.217454</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="11">
-        <v>9</v>
       </c>
       <c r="F25" s="12">
         <v>0.76597222222222217</v>
@@ -4101,7 +4189,7 @@
       <c r="R25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T25" s="14" t="s">
@@ -4125,7 +4213,7 @@
       <c r="AA25" t="s">
         <v>86</v>
       </c>
-      <c r="AB25" s="21">
+      <c r="AB25" s="24">
         <v>0</v>
       </c>
       <c r="AC25" s="21">
@@ -4179,20 +4267,20 @@
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="11">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="5">
+      <c r="D26" s="5">
         <v>39.995587999999998</v>
       </c>
-      <c r="C26" s="5">
+      <c r="E26" s="5">
         <v>-105.215971</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="11">
-        <v>9</v>
       </c>
       <c r="F26" s="12">
         <v>0.79027777777777775</v>
@@ -4233,7 +4321,7 @@
       <c r="R26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T26" s="14" t="s">
@@ -4257,7 +4345,7 @@
       <c r="AA26" t="s">
         <v>86</v>
       </c>
-      <c r="AB26" s="21">
+      <c r="AB26" s="24">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="AC26" s="21">
@@ -4312,20 +4400,20 @@
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="11">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="7">
+      <c r="D27" s="7">
         <v>39.994439</v>
       </c>
-      <c r="C27" s="7">
+      <c r="E27" s="7">
         <v>-105.215971</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="11">
-        <v>9</v>
       </c>
       <c r="F27" s="12">
         <v>0.78263888888888899</v>
@@ -4366,7 +4454,7 @@
       <c r="R27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S27" s="14" t="s">
+      <c r="S27" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T27" s="14" t="s">
@@ -4390,7 +4478,7 @@
       <c r="AA27" t="s">
         <v>86</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB27" s="24">
         <v>0</v>
       </c>
       <c r="AC27" s="21">
@@ -4443,20 +4531,20 @@
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="11">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="7">
+      <c r="D28" s="7">
         <v>39.993318000000002</v>
       </c>
-      <c r="C28" s="7">
+      <c r="E28" s="7">
         <v>-105.215971</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="11">
-        <v>9</v>
       </c>
       <c r="F28" s="12">
         <v>0.7729166666666667</v>
@@ -4497,7 +4585,7 @@
       <c r="R28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S28" s="14" t="s">
+      <c r="S28" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T28" s="14" t="s">
@@ -4521,7 +4609,7 @@
       <c r="AA28" t="s">
         <v>86</v>
       </c>
-      <c r="AB28" s="21">
+      <c r="AB28" s="24">
         <v>0</v>
       </c>
       <c r="AC28" s="21">
@@ -4574,20 +4662,20 @@
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="11">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="5">
+      <c r="D29" s="5">
         <v>39.970230000000001</v>
       </c>
-      <c r="C29" s="5">
+      <c r="E29" s="5">
         <v>-105.22786499999999</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="11">
-        <v>13</v>
       </c>
       <c r="F29" s="12">
         <v>0.5083333333333333</v>
@@ -4628,7 +4716,7 @@
       <c r="R29" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S29" s="14" t="s">
+      <c r="S29" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T29" s="14" t="s">
@@ -4652,7 +4740,7 @@
       <c r="AA29" t="s">
         <v>86</v>
       </c>
-      <c r="AB29" s="21">
+      <c r="AB29" s="24">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="AC29" s="21">
@@ -4705,20 +4793,20 @@
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="11">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="5">
+      <c r="D30" s="5">
         <v>39.969081000000003</v>
       </c>
-      <c r="C30" s="5">
+      <c r="E30" s="5">
         <v>-105.22786499999999</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="11">
-        <v>13</v>
       </c>
       <c r="F30" s="12">
         <v>0.49861111111111112</v>
@@ -4759,7 +4847,7 @@
       <c r="R30" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T30" s="14" t="s">
@@ -4783,7 +4871,7 @@
       <c r="AA30" t="s">
         <v>86</v>
       </c>
-      <c r="AB30" s="21">
+      <c r="AB30" s="24">
         <v>0</v>
       </c>
       <c r="AC30" s="21">
@@ -4839,20 +4927,20 @@
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="11">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="5">
+      <c r="D31" s="5">
         <v>39.967987000000001</v>
       </c>
-      <c r="C31" s="5">
+      <c r="E31" s="5">
         <v>-105.22786499999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="11">
-        <v>13</v>
       </c>
       <c r="F31" s="12">
         <v>0.48819444444444443</v>
@@ -4893,7 +4981,7 @@
       <c r="R31" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="S31" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T31" s="14" t="s">
@@ -4917,7 +5005,7 @@
       <c r="AA31" t="s">
         <v>86</v>
       </c>
-      <c r="AB31" s="21">
+      <c r="AB31" s="24">
         <v>0</v>
       </c>
       <c r="AC31" s="21">
@@ -4970,20 +5058,20 @@
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="11">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="5">
+      <c r="D32" s="5">
         <v>39.970230000000001</v>
       </c>
-      <c r="C32" s="5">
+      <c r="E32" s="5">
         <v>-105.226392</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="11">
-        <v>13</v>
       </c>
       <c r="F32" s="12">
         <v>0.51944444444444449</v>
@@ -5024,7 +5112,7 @@
       <c r="R32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S32" s="14" t="s">
+      <c r="S32" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T32" s="14" t="s">
@@ -5048,7 +5136,7 @@
       <c r="AA32" t="s">
         <v>86</v>
       </c>
-      <c r="AB32" s="21">
+      <c r="AB32" s="24">
         <v>0</v>
       </c>
       <c r="AC32" s="21">
@@ -5098,20 +5186,20 @@
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="11">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="7">
+      <c r="D33" s="7">
         <v>39.969081000000003</v>
       </c>
-      <c r="C33" s="7">
+      <c r="E33" s="7">
         <v>-105.226392</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="11">
-        <v>13</v>
       </c>
       <c r="F33" s="12">
         <v>0.60833333333333328</v>
@@ -5152,7 +5240,7 @@
       <c r="R33">
         <v>0.23</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="24">
         <v>0</v>
       </c>
       <c r="T33">
@@ -5176,7 +5264,7 @@
       <c r="AA33" t="s">
         <v>86</v>
       </c>
-      <c r="AB33" s="21">
+      <c r="AB33" s="24">
         <v>0</v>
       </c>
       <c r="AC33" s="21">
@@ -5232,20 +5320,20 @@
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="11">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="7">
+      <c r="D34" s="7">
         <v>39.967987000000001</v>
       </c>
-      <c r="C34" s="7">
+      <c r="E34" s="7">
         <v>-105.226392</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="11">
-        <v>13</v>
       </c>
       <c r="F34" s="12">
         <v>0.55069444444444449</v>
@@ -5286,7 +5374,7 @@
       <c r="R34">
         <v>0.18</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="24">
         <v>0.02</v>
       </c>
       <c r="T34">
@@ -5310,7 +5398,7 @@
       <c r="AA34" t="s">
         <v>86</v>
       </c>
-      <c r="AB34" s="21">
+      <c r="AB34" s="24">
         <v>0.16666666666666666</v>
       </c>
       <c r="AC34" s="21">
@@ -5366,20 +5454,20 @@
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="11">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="5">
+      <c r="D35" s="5">
         <v>39.970230000000001</v>
       </c>
-      <c r="C35" s="5">
+      <c r="E35" s="5">
         <v>-105.224941</v>
-      </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="11">
-        <v>13</v>
       </c>
       <c r="F35" s="12">
         <v>0.58263888888888882</v>
@@ -5420,7 +5508,7 @@
       <c r="R35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S35" s="14" t="s">
+      <c r="S35" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T35" s="14" t="s">
@@ -5444,7 +5532,7 @@
       <c r="AA35" t="s">
         <v>86</v>
       </c>
-      <c r="AB35" s="21">
+      <c r="AB35" s="24">
         <v>0</v>
       </c>
       <c r="AC35" s="21">
@@ -5494,20 +5582,20 @@
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="11">
+        <v>13</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="7">
+      <c r="D36" s="7">
         <v>39.969081000000003</v>
       </c>
-      <c r="C36" s="5">
+      <c r="E36" s="5">
         <v>-105.224941</v>
-      </c>
-      <c r="D36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="11">
-        <v>13</v>
       </c>
       <c r="F36" s="12">
         <v>0.5708333333333333</v>
@@ -5548,7 +5636,7 @@
       <c r="R36" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S36" s="14" t="s">
+      <c r="S36" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T36" s="14" t="s">
@@ -5572,7 +5660,7 @@
       <c r="AA36" t="s">
         <v>86</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AB36" s="24">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AC36" s="21">
@@ -5628,20 +5716,20 @@
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="11">
+        <v>13</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="7">
+      <c r="D37" s="7">
         <v>39.967987000000001</v>
       </c>
-      <c r="C37" s="5">
+      <c r="E37" s="5">
         <v>-105.224941</v>
-      </c>
-      <c r="D37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="11">
-        <v>13</v>
       </c>
       <c r="F37" s="12">
         <v>0.56041666666666667</v>
@@ -5682,7 +5770,7 @@
       <c r="R37" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="S37" s="14" t="s">
+      <c r="S37" s="25" t="s">
         <v>82</v>
       </c>
       <c r="T37" s="14" t="s">
@@ -5706,7 +5794,7 @@
       <c r="AA37" t="s">
         <v>86</v>
       </c>
-      <c r="AB37" s="21">
+      <c r="AB37" s="24">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="AC37" s="21">
@@ -5756,6 +5844,3630 @@
       </c>
       <c r="AS37" s="17" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="11">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="5">
+        <v>40.012996999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>-105.270138</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" s="12">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="Q38">
+        <v>110</v>
+      </c>
+      <c r="R38">
+        <v>1.74</v>
+      </c>
+      <c r="S38" s="24">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="T38">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>6</v>
+      </c>
+      <c r="X38">
+        <v>1.37</v>
+      </c>
+      <c r="Y38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z38" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB38" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK38" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN38" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AO38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="19">
+        <v>4</v>
+      </c>
+      <c r="AS38" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="11">
+        <v>17</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="5">
+        <v>40.011881000000002</v>
+      </c>
+      <c r="E39" s="5">
+        <v>-105.270138</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" s="12">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="Q39">
+        <v>114</v>
+      </c>
+      <c r="R39">
+        <v>1.36</v>
+      </c>
+      <c r="S39">
+        <v>0.19</v>
+      </c>
+      <c r="T39">
+        <v>0.308</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>1.07</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z39" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB39" s="24">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AC39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AF39" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AG39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AJ39" s="19">
+        <v>4</v>
+      </c>
+      <c r="AK39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL39" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM39" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN39" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AO39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="19">
+        <v>4</v>
+      </c>
+      <c r="AS39" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="11">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="5">
+        <v>40.012996999999999</v>
+      </c>
+      <c r="E40" s="5">
+        <v>-105.268704</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" s="12">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="Q40">
+        <v>111</v>
+      </c>
+      <c r="R40">
+        <v>0.34</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0.2</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB40" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL40" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AM40" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="19">
+        <v>2</v>
+      </c>
+      <c r="AS40" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="11">
+        <v>17</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="7">
+        <v>40.011881000000002</v>
+      </c>
+      <c r="E41" s="7">
+        <v>-105.268704</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="Q41">
+        <v>113</v>
+      </c>
+      <c r="R41">
+        <v>1.21</v>
+      </c>
+      <c r="S41" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="T41">
+        <v>0.35</v>
+      </c>
+      <c r="U41">
+        <v>41</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <v>6</v>
+      </c>
+      <c r="X41">
+        <v>1.17</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB41" s="24">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AC41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="21">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AF41" s="21">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AG41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="19">
+        <v>4</v>
+      </c>
+      <c r="AK41" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL41" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM41" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN41" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AO41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="19">
+        <v>4</v>
+      </c>
+      <c r="AS41" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="11">
+        <v>17</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="5">
+        <v>40.012996999999999</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-105.267231</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA42" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB42" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="24">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AG42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AJ42" s="24">
+        <v>4</v>
+      </c>
+      <c r="AK42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR42" s="24"/>
+      <c r="AS42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="11">
+        <v>17</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="7">
+        <v>40.011881000000002</v>
+      </c>
+      <c r="E43" s="7">
+        <v>-105.267231</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" s="12">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="Q43">
+        <v>112</v>
+      </c>
+      <c r="R43">
+        <v>1.58</v>
+      </c>
+      <c r="S43" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T43">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="U43">
+        <v>25</v>
+      </c>
+      <c r="V43">
+        <v>11</v>
+      </c>
+      <c r="W43">
+        <v>6</v>
+      </c>
+      <c r="X43">
+        <v>1.42</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB43" s="24">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AC43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE43" s="21">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="AF43" s="21">
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="AG43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="21">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AJ43" s="19">
+        <v>4</v>
+      </c>
+      <c r="AK43" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL43" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM43" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN43" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AO43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="19">
+        <v>4</v>
+      </c>
+      <c r="AS43" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="11">
+        <v>16</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="5">
+        <v>39.999321000000002</v>
+      </c>
+      <c r="E44" s="5">
+        <v>-105.216571</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G44">
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <v>0.6</v>
+      </c>
+      <c r="I44" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="J44">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="K44">
+        <v>71</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>79</v>
+      </c>
+      <c r="R44" t="s">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB44" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AC44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="21">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="AJ44" s="19">
+        <v>3</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL44" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="11">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="5">
+        <v>39.998171999999997</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-105.216571</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G45">
+        <v>81</v>
+      </c>
+      <c r="H45">
+        <v>0.43</v>
+      </c>
+      <c r="I45">
+        <v>0.05</v>
+      </c>
+      <c r="J45">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="K45">
+        <v>81</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>0.46</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P45" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>79</v>
+      </c>
+      <c r="R45" t="s">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB45" s="24">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AC45" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="AE45" s="21">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="AF45" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AJ45" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL45" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="11">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="5">
+        <v>39.997062999999997</v>
+      </c>
+      <c r="E46" s="5">
+        <v>-105.216571</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" s="12">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="Q46">
+        <v>82</v>
+      </c>
+      <c r="R46">
+        <v>0.26</v>
+      </c>
+      <c r="S46">
+        <v>0.02</v>
+      </c>
+      <c r="T46">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>6</v>
+      </c>
+      <c r="X46">
+        <v>0.09</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB46" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="21">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AF46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="21">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="AJ46" s="19">
+        <v>3</v>
+      </c>
+      <c r="AK46" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN46" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AO46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="11">
+        <v>17</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="5">
+        <v>39.999321000000002</v>
+      </c>
+      <c r="E47" s="5">
+        <v>-105.215103</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" s="12">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="Q47">
+        <v>103</v>
+      </c>
+      <c r="R47">
+        <v>0.37</v>
+      </c>
+      <c r="S47" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="T47">
+        <v>0.73</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="X47">
+        <v>0.26</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB47" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AC47" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE47" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AG47" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="21">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AJ47" s="19">
+        <v>4</v>
+      </c>
+      <c r="AK47" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL47" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM47" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN47" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AO47" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="11">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="7">
+        <v>39.998171999999997</v>
+      </c>
+      <c r="E48" s="7">
+        <v>-105.215103</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" s="12">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="Q48">
+        <v>95</v>
+      </c>
+      <c r="R48">
+        <v>1.05</v>
+      </c>
+      <c r="S48" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="T48">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="U48">
+        <v>19</v>
+      </c>
+      <c r="V48">
+        <v>8</v>
+      </c>
+      <c r="W48">
+        <v>6</v>
+      </c>
+      <c r="X48">
+        <v>0.94</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB48" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AC48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE48" s="21">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AF48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AJ48" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK48" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN48" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AO48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="11">
+        <v>16</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="7">
+        <v>39.997062999999997</v>
+      </c>
+      <c r="E49" s="8">
+        <v>-105.215103</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" s="12">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="Q49">
+        <v>94</v>
+      </c>
+      <c r="R49">
+        <v>0.76</v>
+      </c>
+      <c r="S49" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="T49">
+        <v>0.52</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>5</v>
+      </c>
+      <c r="X49">
+        <v>0.6</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB49" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AF49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="21">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AJ49" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK49" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN49" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AO49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="11">
+        <v>17</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="5">
+        <v>39.999321000000002</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-105.213673</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="G50">
+        <v>96</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>0.43</v>
+      </c>
+      <c r="J50">
+        <v>0.24</v>
+      </c>
+      <c r="K50">
+        <v>65</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>2.15</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA50" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB50" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="21">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="AF50" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="21">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AJ50" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL50" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="11">
+        <v>16</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="7">
+        <v>39.998171999999997</v>
+      </c>
+      <c r="E51" s="7">
+        <v>-105.213673</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="G51">
+        <v>102</v>
+      </c>
+      <c r="H51" s="24">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I51">
+        <v>0.1</v>
+      </c>
+      <c r="J51">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="K51">
+        <v>59</v>
+      </c>
+      <c r="L51" s="14">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA51" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB51" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AC51" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE51" s="21">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="AF51" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="21">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AJ51" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL51" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="11">
+        <v>17</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="7">
+        <v>39.997062999999997</v>
+      </c>
+      <c r="E52" s="7">
+        <v>-105.213673</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" s="12">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="Q52">
+        <v>97</v>
+      </c>
+      <c r="R52">
+        <v>0.49</v>
+      </c>
+      <c r="S52" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="T52">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>5</v>
+      </c>
+      <c r="X52">
+        <v>0.36</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB52" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE52" s="21">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="AF52" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="21">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="AJ52" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL52" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN52" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AO52" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="11">
+        <v>16</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="5">
+        <v>39.995587999999998</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-105.218913</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G53">
+        <v>88</v>
+      </c>
+      <c r="H53">
+        <v>0.86</v>
+      </c>
+      <c r="I53">
+        <v>0.22</v>
+      </c>
+      <c r="J53">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K53">
+        <v>66</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>6</v>
+      </c>
+      <c r="N53">
+        <v>0.91</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA53" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB53" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AE53" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="AF53" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="AJ53" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK53" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL53" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM53" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN53" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO53" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP53" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ53" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="11">
+        <v>16</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="5">
+        <v>39.994439</v>
+      </c>
+      <c r="E54" s="5">
+        <v>-105.218913</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="G54">
+        <v>90</v>
+      </c>
+      <c r="H54">
+        <v>2.19</v>
+      </c>
+      <c r="I54">
+        <v>0.3</v>
+      </c>
+      <c r="J54">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K54">
+        <v>62</v>
+      </c>
+      <c r="L54" s="14">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>6</v>
+      </c>
+      <c r="N54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA54" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB54" s="24">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AC54" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="21">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AF54" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="21">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AJ54" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK54" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL54" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM54" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN54" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO54" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP54" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ54" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="11">
+        <v>16</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="7">
+        <v>39.993318000000002</v>
+      </c>
+      <c r="E55" s="7">
+        <v>-105.218913</v>
+      </c>
+      <c r="F55" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G55">
+        <v>91</v>
+      </c>
+      <c r="H55">
+        <v>1.65</v>
+      </c>
+      <c r="I55">
+        <v>0.2</v>
+      </c>
+      <c r="J55">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K55">
+        <v>63</v>
+      </c>
+      <c r="L55" s="14">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>1.75</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA55" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB55" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="21">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="AF55" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="21">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="AJ55" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK55" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL55" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM55" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN55" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO55" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP55" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ55" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="11">
+        <v>16</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="5">
+        <v>39.995587999999998</v>
+      </c>
+      <c r="E56" s="5">
+        <v>-105.217454</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G56">
+        <v>92</v>
+      </c>
+      <c r="H56">
+        <v>0.8</v>
+      </c>
+      <c r="I56">
+        <v>0.06</v>
+      </c>
+      <c r="J56">
+        <v>0.51</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" s="14">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA56" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB56" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AE56" s="21">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AF56" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="21">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="AJ56" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK56" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL56" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN56" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AO56" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="11">
+        <v>16</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="7">
+        <v>39.994439</v>
+      </c>
+      <c r="E57" s="7">
+        <v>-105.217454</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P57" s="12">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="Q57">
+        <v>87</v>
+      </c>
+      <c r="R57">
+        <v>0.22</v>
+      </c>
+      <c r="S57" s="24">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>0.12</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA57" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB57" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE57" s="21">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AF57" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="21">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AJ57" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK57" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL57" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM57" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN57" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AO57" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="11">
+        <v>16</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="7">
+        <v>39.993318000000002</v>
+      </c>
+      <c r="E58" s="7">
+        <v>-105.217454</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" s="12">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="Q58">
+        <v>93</v>
+      </c>
+      <c r="R58">
+        <v>1.61</v>
+      </c>
+      <c r="S58" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="T58">
+        <v>0.253</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>6</v>
+      </c>
+      <c r="X58">
+        <v>1.5</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA58" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB58" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="21">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="AF58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="21">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="AJ58" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="AK58" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL58" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM58" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN58" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AO58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="11">
+        <v>16</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="5">
+        <v>39.995587999999998</v>
+      </c>
+      <c r="E59" s="5">
+        <v>-105.215971</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P59" s="12">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="Q59">
+        <v>99</v>
+      </c>
+      <c r="R59">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S59" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="T59">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>23</v>
+      </c>
+      <c r="W59">
+        <v>6</v>
+      </c>
+      <c r="X59">
+        <v>1.06</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA59" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB59" s="24">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AC59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE59" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="21">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="AJ59" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK59" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL59" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AM59" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AN59" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="AO59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="11">
+        <v>16</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="7">
+        <v>39.994439</v>
+      </c>
+      <c r="E60" s="7">
+        <v>-105.215971</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>1.32</v>
+      </c>
+      <c r="I60">
+        <v>0.21</v>
+      </c>
+      <c r="J60">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="K60">
+        <v>70</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>1.45</v>
+      </c>
+      <c r="O60" t="s">
+        <v>137</v>
+      </c>
+      <c r="P60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA60" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB60" s="24">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AC60" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE60" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AF60" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="21">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="AJ60" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP60" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ60" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="11">
+        <v>16</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="7">
+        <v>39.993318000000002</v>
+      </c>
+      <c r="E61" s="7">
+        <v>-105.215971</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="G61">
+        <v>101</v>
+      </c>
+      <c r="H61">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I61">
+        <v>0.48</v>
+      </c>
+      <c r="J61">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K61">
+        <v>54</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>6</v>
+      </c>
+      <c r="N61">
+        <v>233</v>
+      </c>
+      <c r="O61" t="s">
+        <v>137</v>
+      </c>
+      <c r="P61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y61" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA61" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB61" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE61" s="21">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="AF61" s="21">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AG61" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="21">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AJ61" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="AK61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="11">
+        <v>17</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="5">
+        <v>39.970230000000001</v>
+      </c>
+      <c r="E62" s="5">
+        <v>-105.22786499999999</v>
+      </c>
+      <c r="F62" s="26">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="G62">
+        <v>107</v>
+      </c>
+      <c r="H62">
+        <v>0.47</v>
+      </c>
+      <c r="I62">
+        <v>0.08</v>
+      </c>
+      <c r="J62">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="K62">
+        <v>58</v>
+      </c>
+      <c r="L62">
+        <v>9</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>0.47</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="P62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y62" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA62" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB62" s="24">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="AC62" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE62" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="AF62" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="21">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="AJ62" s="19">
+        <v>3</v>
+      </c>
+      <c r="AK62" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL62" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM62" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN62" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO62" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP62" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ62" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="11">
+        <v>17</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="5">
+        <v>39.969081000000003</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-105.22786499999999</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="G63">
+        <v>106</v>
+      </c>
+      <c r="H63">
+        <v>0.53</v>
+      </c>
+      <c r="I63">
+        <v>0.1</v>
+      </c>
+      <c r="J63">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="K63">
+        <v>54</v>
+      </c>
+      <c r="L63">
+        <v>8</v>
+      </c>
+      <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>0.5</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="P63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y63" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA63" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB63" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="21">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AF63" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AJ63" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK63" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL63" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM63" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN63" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO63" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP63" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ63" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="11">
+        <v>17</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="5">
+        <v>39.967987000000001</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-105.22786499999999</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="G64">
+        <v>105</v>
+      </c>
+      <c r="H64">
+        <v>0.9</v>
+      </c>
+      <c r="I64">
+        <v>0.1</v>
+      </c>
+      <c r="J64">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="K64">
+        <v>65</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>0.94</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y64" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA64" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB64" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE64" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="AF64" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="21">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="AJ64" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK64" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL64" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM64" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN64" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO64" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP64" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ64" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="11">
+        <v>17</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="5">
+        <v>39.970230000000001</v>
+      </c>
+      <c r="E65" s="5">
+        <v>-105.226392</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="G65">
+        <v>108</v>
+      </c>
+      <c r="H65">
+        <v>1.55</v>
+      </c>
+      <c r="I65">
+        <v>0.2</v>
+      </c>
+      <c r="J65">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="K65">
+        <v>46</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>6</v>
+      </c>
+      <c r="N65">
+        <v>1.52</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="W65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA65" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB65" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AC65" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="21">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AF65" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="AJ65" s="19">
+        <v>2</v>
+      </c>
+      <c r="AK65" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL65" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM65" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN65" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO65" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP65" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ65" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5765,18 +9477,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView showRuler="0" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="28" max="35" width="10.83203125" style="21"/>
+    <col min="18" max="25" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5793,127 +9505,97 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="R1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="AB1" s="20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AD1" s="20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AE1" s="20" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AF1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AH1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -5929,165 +9611,278 @@
       <c r="E2">
         <v>9</v>
       </c>
-      <c r="P2" s="12">
+      <c r="F2" s="12">
         <v>0.69097222222222221</v>
       </c>
-      <c r="Q2">
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="R2">
+      <c r="H2">
         <v>0.12</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>0.90700000000000003</v>
       </c>
-      <c r="U2">
+      <c r="K2">
         <v>45</v>
       </c>
-      <c r="V2">
+      <c r="L2">
         <v>14</v>
       </c>
-      <c r="W2">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="X2">
+      <c r="N2">
         <v>0.12</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="O2" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="P2" t="s">
         <v>128</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="21">
+        <v>0</v>
+      </c>
+      <c r="S2" s="21">
+        <v>0</v>
+      </c>
+      <c r="T2" s="21">
+        <f>0.0277777777777778/2</f>
+        <v>1.38888888888889E-2</v>
+      </c>
+      <c r="U2" s="21">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="V2" s="21">
+        <v>0</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0</v>
+      </c>
+      <c r="X2" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>0.5</v>
       </c>
       <c r="AA2" t="s">
         <v>86</v>
       </c>
       <c r="AB2" s="21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC2" s="21">
         <v>0</v>
       </c>
       <c r="AD2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>39.998649999999998</v>
+      </c>
+      <c r="C3">
+        <v>105.21585</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="21">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <v>0</v>
+      </c>
+      <c r="T3" s="21">
         <f>0.0277777777777778/2</f>
         <v>1.38888888888889E-2</v>
       </c>
-      <c r="AE2" s="21">
+      <c r="U3" s="21">
         <v>0.1388888888888889</v>
       </c>
-      <c r="AF2" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="21">
+      <c r="V3" s="21">
+        <v>0</v>
+      </c>
+      <c r="W3" s="21">
+        <v>0</v>
+      </c>
+      <c r="X3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="21">
         <v>0.86111111111111116</v>
       </c>
-      <c r="AJ2" s="21">
+      <c r="Z3" s="21">
         <v>0.5</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="AM2" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="21">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>39.998649999999998</v>
-      </c>
-      <c r="C3">
-        <v>105.21585</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
       </c>
       <c r="AA3" t="s">
         <v>86</v>
       </c>
       <c r="AB3" s="21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC3" s="21">
         <v>0</v>
       </c>
       <c r="AD3" s="21">
-        <f>0.0277777777777778/2</f>
-        <v>1.38888888888889E-2</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="21">
-        <v>0.1388888888888889</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="21">
         <v>0</v>
       </c>
       <c r="AG3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="21">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="AJ3" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="AK3" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>39.998649999999998</v>
+      </c>
+      <c r="C4">
+        <v>105.21585</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="G4">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>0.31</v>
+      </c>
+      <c r="I4">
+        <v>0.02</v>
+      </c>
+      <c r="J4">
+        <v>0.77</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>0.24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="s">
         <v>86</v>
       </c>
-      <c r="AL3" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="AM3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="21">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>103</v>
+      <c r="R4" s="21">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S4" s="21">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="U4" s="21">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21">
+        <f>0.666666666666667 + (1/36)/2</f>
+        <v>0.6805555555555558</v>
+      </c>
+      <c r="W4" s="21">
+        <v>0</v>
+      </c>
+      <c r="X4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>39.998649999999998</v>
+      </c>
+      <c r="C5">
+        <v>105.21585</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
